--- a/100 Days of Deep Learning.xlsx
+++ b/100 Days of Deep Learning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="280">
   <si>
     <t>Title</t>
   </si>
@@ -724,6 +724,141 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>15,June,2024</t>
+  </si>
+  <si>
+    <t>16,June,2024</t>
+  </si>
+  <si>
+    <t>17,June,2024</t>
+  </si>
+  <si>
+    <t>18,June,2024</t>
+  </si>
+  <si>
+    <t>19,June,2024</t>
+  </si>
+  <si>
+    <t>20,June,2024</t>
+  </si>
+  <si>
+    <t>21,June,2024</t>
+  </si>
+  <si>
+    <t>22,June,2024</t>
+  </si>
+  <si>
+    <t>23,June,2024</t>
+  </si>
+  <si>
+    <t>24,June,2024</t>
+  </si>
+  <si>
+    <t>25,June,2024</t>
+  </si>
+  <si>
+    <t>26,June,2024</t>
+  </si>
+  <si>
+    <t>27,June,2024</t>
+  </si>
+  <si>
+    <t>28,June,2024</t>
+  </si>
+  <si>
+    <t>29,June,2024</t>
+  </si>
+  <si>
+    <t>30,June,2024</t>
+  </si>
+  <si>
+    <t>1,July,2024</t>
+  </si>
+  <si>
+    <t>2,July,2024</t>
+  </si>
+  <si>
+    <t>3,July,2024</t>
+  </si>
+  <si>
+    <t>4,July,2024</t>
+  </si>
+  <si>
+    <t>5,July,2024</t>
+  </si>
+  <si>
+    <t>6,July,2024</t>
+  </si>
+  <si>
+    <t>7,July,2024</t>
+  </si>
+  <si>
+    <t>8,July,2024</t>
+  </si>
+  <si>
+    <t>9,July,2024</t>
+  </si>
+  <si>
+    <t>10,July,2024</t>
+  </si>
+  <si>
+    <t>11,July,2024</t>
+  </si>
+  <si>
+    <t>12,July,2024</t>
+  </si>
+  <si>
+    <t>13,July,2024</t>
+  </si>
+  <si>
+    <t>14,July,2024</t>
+  </si>
+  <si>
+    <t>15,July,2024</t>
+  </si>
+  <si>
+    <t>16,July,2024</t>
+  </si>
+  <si>
+    <t>17,July,2024</t>
+  </si>
+  <si>
+    <t>18,July,2024</t>
+  </si>
+  <si>
+    <t>19,July,2024</t>
+  </si>
+  <si>
+    <t>21,July,2024</t>
+  </si>
+  <si>
+    <t>22,July,2024</t>
+  </si>
+  <si>
+    <t>23,July,2024</t>
+  </si>
+  <si>
+    <t>24,July,2024</t>
+  </si>
+  <si>
+    <t>25,July,2024</t>
+  </si>
+  <si>
+    <t>26,July,2024</t>
+  </si>
+  <si>
+    <t>27,July,2024</t>
+  </si>
+  <si>
+    <t>28,July,2024</t>
+  </si>
+  <si>
+    <t>Positional Encoding</t>
+  </si>
+  <si>
+    <t>Layer Normalizatiojn</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1171,9 +1306,7 @@
         <f t="shared" ref="D2:D33" si="0">HYPERLINK(C2)</f>
         <v>https://www.youtube.com/watch?v=2dH_qjc9mFg</v>
       </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>234</v>
       </c>
@@ -1192,9 +1325,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fHF22Wxuyw4</v>
       </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>234</v>
       </c>
@@ -1213,9 +1344,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fne_UE7hDn0</v>
       </c>
-      <c r="E4" s="2">
-        <v>21</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>234</v>
       </c>
@@ -1234,9 +1363,7 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=X7iIKPoZ0Sw</v>
       </c>
-      <c r="E5" s="2">
-        <v>21</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>234</v>
       </c>
@@ -1255,8 +1382,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Lu2bruOHN6g</v>
       </c>
-      <c r="E6">
-        <v>22</v>
+      <c r="F6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1273,8 +1400,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=2_gCL5RAkHc</v>
       </c>
-      <c r="E7">
-        <v>23</v>
+      <c r="F7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1291,8 +1418,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Jp44b27VnOg</v>
       </c>
-      <c r="E8">
-        <v>24</v>
+      <c r="F8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1309,8 +1436,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=H0_3SJh4Rqs</v>
       </c>
-      <c r="E9">
-        <v>24</v>
+      <c r="F9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1327,8 +1454,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=qw7wFGgNCSU</v>
       </c>
-      <c r="E10">
-        <v>24</v>
+      <c r="F10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1345,8 +1472,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=7MuiScUkboE</v>
       </c>
-      <c r="E11">
-        <v>25</v>
+      <c r="F11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1363,8 +1490,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=9wmImImmgcI</v>
       </c>
-      <c r="E12">
-        <v>25</v>
+      <c r="F12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1381,8 +1508,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3xPT2Pk0Jds</v>
       </c>
-      <c r="E13">
-        <v>26</v>
+      <c r="F13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1399,8 +1526,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=RCmiPBiA4qg</v>
       </c>
-      <c r="E14">
-        <v>26</v>
+      <c r="F14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1417,8 +1544,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=gb5nm_3jBIo</v>
       </c>
-      <c r="E15">
-        <v>27</v>
+      <c r="F15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1435,11 +1562,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6M1wWQmcUjQ</v>
       </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1453,11 +1580,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ma6hWrU-LaI</v>
       </c>
-      <c r="E17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1471,11 +1598,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6xO-x8y0YSY</v>
       </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1489,11 +1616,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=rW0eeTXas4k</v>
       </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1507,11 +1634,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=7z6yXpYk7sw</v>
       </c>
-      <c r="E20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1525,11 +1652,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=uCrevbBh0zM</v>
       </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1543,11 +1670,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Ue_6n1yT_R8</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1561,11 +1688,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Ygvskt5HadI</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1579,11 +1706,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=mzRO0cVppQ0</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1597,11 +1724,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=gyTlcHVeBjM</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1615,11 +1742,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=tgIx04ML7-Y</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1633,11 +1760,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=4xRonrhtkzc</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1651,11 +1778,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=7LcUkgzx3AY</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1669,11 +1796,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=2OwWs7Hzr9g</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1687,11 +1814,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=2MSY0HwH5Ss</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1705,11 +1832,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=nwVOSgcrbQI</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1723,11 +1850,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=2AscwXePInA</v>
       </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1741,11 +1868,11 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=iCTTnQJn50E</v>
       </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1759,11 +1886,11 @@
         <f t="shared" ref="D34:D65" si="1">HYPERLINK(C34)</f>
         <v>https://www.youtube.com/watch?v=jAqVuYJ8TP8</v>
       </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1777,11 +1904,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=vVS4csXRlcQ</v>
       </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1795,11 +1922,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=rKG9E6rce1c</v>
       </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1813,11 +1940,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=nqL9xYmhEpg</v>
       </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -1831,11 +1958,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=p0wSmKslWi0</v>
       </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -1849,11 +1976,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=N5AynalXD9g</v>
       </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1867,11 +1994,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=oYnyNLj8RMA</v>
       </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1885,11 +2012,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=hDVFXf74P-U</v>
       </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1903,11 +2030,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=aslTGS9ef98</v>
       </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1921,11 +2048,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=cgJx3GvQ5y8</v>
       </c>
-      <c r="E43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1939,11 +2066,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=btWE6SsdDZA</v>
       </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1957,11 +2084,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=DwmGefkowCU</v>
       </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -1975,11 +2102,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=ewsvsJQOuTI</v>
       </c>
-      <c r="E46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -1993,11 +2120,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=niE5DRKvD_E</v>
       </c>
-      <c r="E47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -2011,11 +2138,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=RvCCFttGFMY</v>
       </c>
-      <c r="E48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2029,11 +2156,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OoSDzOodY3Y</v>
       </c>
-      <c r="E49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -2047,11 +2174,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=0K4J_PTgysc</v>
       </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2065,11 +2192,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=sM2C-SsREgM</v>
       </c>
-      <c r="E51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -2083,11 +2210,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=0MVXteg7TB4</v>
       </c>
-      <c r="E52">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -2101,11 +2228,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=WJysB1RK2vM</v>
       </c>
-      <c r="E53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -2119,11 +2246,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=WWcgHjuKVqA</v>
       </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2137,11 +2264,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OvQQP1QVru8</v>
       </c>
-      <c r="E55">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2155,11 +2282,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=4KpRP-YUw6c</v>
       </c>
-      <c r="E56">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2173,11 +2300,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=BjWqCcbusMM</v>
       </c>
-      <c r="E57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2191,11 +2318,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=JgnbwKnHMZQ</v>
       </c>
-      <c r="E58">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2209,11 +2336,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=TkOBxzhIySg</v>
       </c>
-      <c r="E59">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2227,11 +2354,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=OvCz1acvt-k</v>
       </c>
-      <c r="E60">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2245,11 +2372,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=AWHSZzp96kM</v>
       </c>
-      <c r="E61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2263,11 +2390,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=z7IPBg6MyrU</v>
       </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2281,11 +2408,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=Akv3poqqwI4</v>
       </c>
-      <c r="E63">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2299,11 +2426,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=fiqo6uPCJVI</v>
       </c>
-      <c r="E64">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2317,11 +2444,11 @@
         <f t="shared" si="1"/>
         <v>https://www.youtube.com/watch?v=QQfZAoNGQmE</v>
       </c>
-      <c r="E65">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2332,14 +2459,14 @@
         <v>196</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" ref="D66:D97" si="2">HYPERLINK(C66)</f>
+        <f t="shared" ref="D66:D78" si="2">HYPERLINK(C66)</f>
         <v>https://www.youtube.com/watch?v=mlDkTrlLaio</v>
       </c>
-      <c r="E66">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2353,11 +2480,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=k2NSm3MNdYg</v>
       </c>
-      <c r="E67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -2371,11 +2498,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=8fX3rOjTloc</v>
       </c>
-      <c r="E68">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -2389,11 +2516,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=KiL74WsgxoA</v>
       </c>
-      <c r="E69">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -2407,11 +2534,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=rj5V6q6-XUM</v>
       </c>
-      <c r="E70">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -2425,11 +2552,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=0hZT4_fHfNQ</v>
       </c>
-      <c r="E71">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -2443,11 +2570,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=BjRVS2wTtcA</v>
       </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -2461,11 +2588,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=XnGGmvpDLA0</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -2479,11 +2606,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=-tCKPl_8Xb8</v>
       </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -2497,11 +2624,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=r7mAt0iVqwo</v>
       </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -2515,11 +2642,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=5ZgGuujZSbs</v>
       </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -2533,11 +2660,11 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=o4ZVA0TuDRg</v>
       </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -2551,8 +2678,24 @@
         <f t="shared" si="2"/>
         <v>https://www.youtube.com/watch?v=bX2QwpjsmuA</v>
       </c>
-      <c r="E78">
-        <v>5</v>
+      <c r="F78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/100 Days of Deep Learning.xlsx
+++ b/100 Days of Deep Learning.xlsx
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1382,7 +1382,8 @@
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Lu2bruOHN6g</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>235</v>
       </c>
     </row>

--- a/100 Days of Deep Learning.xlsx
+++ b/100 Days of Deep Learning.xlsx
@@ -889,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,11 +922,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1263,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1273,6 +1282,7 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1293,92 +1303,92 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D33" si="0">HYPERLINK(C2)</f>
         <v>https://www.youtube.com/watch?v=2dH_qjc9mFg</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fHF22Wxuyw4</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=fne_UE7hDn0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=X7iIKPoZ0Sw</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Lu2bruOHN6g</v>
       </c>
@@ -1388,146 +1398,154 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=2_gCL5RAkHc</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=Jp44b27VnOg</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=H0_3SJh4Rqs</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=qw7wFGgNCSU</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=7MuiScUkboE</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=9wmImImmgcI</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3xPT2Pk0Jds</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=RCmiPBiA4qg</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>239</v>
       </c>
     </row>

--- a/100 Days of Deep Learning.xlsx
+++ b/100 Days of Deep Learning.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1531,39 +1531,40 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=RCmiPBiA4qg</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=gb5nm_3jBIo</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>240</v>
       </c>
     </row>

--- a/100 Days of Deep Learning.xlsx
+++ b/100 Days of Deep Learning.xlsx
@@ -889,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,12 +899,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,14 +916,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1512,21 +1504,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=3xPT2Pk0Jds</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1569,38 +1561,40 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=6M1wWQmcUjQ</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.youtube.com/watch?v=ma6hWrU-LaI</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>242</v>
       </c>
     </row>
